--- a/Data Files/PayeeData.xlsx
+++ b/Data Files/PayeeData.xlsx
@@ -1,3 +1,27 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\095095\Katalon Studio\FINAL_PROJECT\FinalProjectMobile\Data Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
@@ -5,13 +29,13 @@
     <t>payeeName</t>
   </si>
   <si>
-    <t>Kos</t>
+    <t>Katalon License</t>
   </si>
   <si>
-    <t>Tv Kabel</t>
+    <t>Gopay</t>
   </si>
   <si>
-    <t>Pajak</t>
+    <t>Ovo</t>
   </si>
 </sst>
 </file>
@@ -332,12 +356,12 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
